--- a/study bug reporting, improvements results/outputs/improvements.xlsx
+++ b/study bug reporting, improvements results/outputs/improvements.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -68,7 +68,10 @@
     <t>18</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>improvement</t>
@@ -104,7 +107,13 @@
     <t>analysis</t>
   </si>
   <si>
+    <t>When calculating network indicators, you can select for which concepts you want to calculate the micro level indicators. When doing so and then navigating to another page (e.g., to "get network descriptives") and then navigating back to the "get network indicators" page, the indicators have to be calculated again. This also means, that you have to select the concepts again for which you want to get micro level indicators. If you have selected a bunch of concepts, this might be really annoying. It would be nice if the indicators would be saved automatically (without having to download them) so you could switch between different module(parts) and come back without loosing your selected concepts and calculations.</t>
+  </si>
+  <si>
     <t>It would be super nice to be able to go straight from pre-processing to analysis without having to download the data first, then start the app again, upload the data, ...</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>7</t>
@@ -220,52 +229,52 @@
         <v>18.0</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -273,55 +282,111 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/study bug reporting, improvements results/outputs/improvements.xlsx
+++ b/study bug reporting, improvements results/outputs/improvements.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -65,13 +65,13 @@
     <t>feedback_critic</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>improvement</t>
@@ -86,18 +86,18 @@
     <t>Mac/iOS</t>
   </si>
   <si>
+    <t>CAMApp</t>
+  </si>
+  <si>
     <t>CAMEL</t>
   </si>
   <si>
-    <t>CAMApp</t>
+    <t/>
   </si>
   <si>
     <t>concept</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">There does not seem to be a limit on the number of words you can write in the "comment" for a specific concept. It might be useful to have a limitation here in order to avoid overly long comments. </t>
   </si>
   <si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>It would be super nice to be able to go straight from pre-processing to analysis without having to download the data first, then start the app again, upload the data, ...</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>7</t>
@@ -226,7 +223,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -250,31 +247,31 @@
         <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -282,7 +279,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -306,31 +303,31 @@
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -338,7 +335,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -356,16 +353,16 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
         <v>30</v>
@@ -374,19 +371,19 @@
         <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
